--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/Zen/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EE75841-E1F0-4672-96BD-4E76EE187833}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F22B1E25-2C79-47E0-90E3-17F5E2AB6574}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="4050" windowWidth="19185" windowHeight="10065" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="180">
   <si>
     <t>Monday</t>
   </si>
@@ -482,6 +482,99 @@
   </si>
   <si>
     <t>more testing, running the battery</t>
+  </si>
+  <si>
+    <t>19/09/2022</t>
+  </si>
+  <si>
+    <t>wrote up report for beta version</t>
+  </si>
+  <si>
+    <t>investigating ideas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look in notebook.. </t>
+  </si>
+  <si>
+    <t>I think ros is the way to go</t>
+  </si>
+  <si>
+    <t>This will enable lidar and arms, while also being a great learning op</t>
+  </si>
+  <si>
+    <t>Adding arms is just more motors and 3D printed parts, that’s done, adding ros is something new, we could control arms with ros, would be very interesting</t>
+  </si>
+  <si>
+    <t>Would add another pi I think at least until everything is up and running</t>
+  </si>
+  <si>
+    <t>investigating ros</t>
+  </si>
+  <si>
+    <t>swapping out castors</t>
+  </si>
+  <si>
+    <t>did wheelchair testing - pass</t>
+  </si>
+  <si>
+    <t>castors work much better, might investigate even smaller castors</t>
+  </si>
+  <si>
+    <t>installing ubuntu on VM and installing ROS</t>
+  </si>
+  <si>
+    <t>robotics class</t>
+  </si>
+  <si>
+    <t>Troubleshooting problems that happened in school</t>
+  </si>
+  <si>
+    <t>Designed and laser cut acrilic supports for bearing mounts</t>
+  </si>
+  <si>
+    <t>Reattached back castor</t>
+  </si>
+  <si>
+    <t>Superglued wheels</t>
+  </si>
+  <si>
+    <t>Installed supports</t>
+  </si>
+  <si>
+    <t>Ater testing, all drive mech problems have been fixed, much more sturdy now</t>
+  </si>
+  <si>
+    <t>lots of testing</t>
+  </si>
+  <si>
+    <t>results are in notebook page 7</t>
+  </si>
+  <si>
+    <t>reprinting neck, neck to frame and neck to head, will be much better, this is definitly the weakest link</t>
+  </si>
+  <si>
+    <t>26/09/2022</t>
+  </si>
+  <si>
+    <t>Redesigned drive mech for hex shaft</t>
+  </si>
+  <si>
+    <t>ordered shaft and printing parts</t>
+  </si>
+  <si>
+    <t>also fixing the installation of timing belt issue with detachable top of pulley</t>
+  </si>
+  <si>
+    <t>Working on drive mech</t>
+  </si>
+  <si>
+    <t>filming</t>
+  </si>
+  <si>
+    <t>Drafting Industrial Design Application</t>
+  </si>
+  <si>
+    <t>reprinting bearing mounts in PETG 40%, including centre</t>
   </si>
 </sst>
 </file>
@@ -883,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,6 +1601,161 @@
         <v>143</v>
       </c>
     </row>
+    <row r="58" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/Zen/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F22B1E25-2C79-47E0-90E3-17F5E2AB6574}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2101D7-4F2C-4E97-B022-B184FAA95D8D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="195">
   <si>
     <t>Monday</t>
   </si>
@@ -575,6 +575,51 @@
   </si>
   <si>
     <t>reprinting bearing mounts in PETG 40%, including centre</t>
+  </si>
+  <si>
+    <t>working on drive mecgh</t>
+  </si>
+  <si>
+    <t>problems with cell 3</t>
+  </si>
+  <si>
+    <t>tested drive mech</t>
+  </si>
+  <si>
+    <t>bearing adapters are not holding</t>
+  </si>
+  <si>
+    <t>try install without shaft with set screws. Also add set screws from pla to shaft to stop horizontal motion</t>
+  </si>
+  <si>
+    <t>put drive mech together</t>
+  </si>
+  <si>
+    <t>working on battery</t>
+  </si>
+  <si>
+    <t>researching batteries</t>
+  </si>
+  <si>
+    <t>going with 2 4s 3300ma and 50C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">designing new battery mounts </t>
+  </si>
+  <si>
+    <t>created BOM</t>
+  </si>
+  <si>
+    <t>designed dome mounts</t>
+  </si>
+  <si>
+    <t>working with battery</t>
+  </si>
+  <si>
+    <t>found appropiate batteries</t>
+  </si>
+  <si>
+    <t>worked on wed scraping for clover to answer random questions</t>
   </si>
 </sst>
 </file>
@@ -976,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,6 +1776,9 @@
       <c r="D69" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="E69" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
@@ -1754,6 +1802,76 @@
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2101D7-4F2C-4E97-B022-B184FAA95D8D}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93CAF9C9-79D8-490A-943E-015CCCECC94B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="10275" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="197">
   <si>
     <t>Monday</t>
   </si>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t>worked on wed scraping for clover to answer random questions</t>
+  </si>
+  <si>
+    <t>what,how , why working quite well !</t>
+  </si>
+  <si>
+    <t>tomorrow - integrate into clover</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,6 +1880,16 @@
         <v>194</v>
       </c>
     </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E80" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E82" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93CAF9C9-79D8-490A-943E-015CCCECC94B}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D1FE69-7813-4EEC-982B-229CE5B48F44}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="10275" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="220">
   <si>
     <t>Monday</t>
   </si>
@@ -626,6 +626,75 @@
   </si>
   <si>
     <t>tomorrow - integrate into clover</t>
+  </si>
+  <si>
+    <t>new neck, much stronger</t>
+  </si>
+  <si>
+    <t>new head, incorporates buttons ect in design</t>
+  </si>
+  <si>
+    <t>new battery mounts, no longer dragging, placed on sides</t>
+  </si>
+  <si>
+    <t>new batteries, two 4s rather than one 8 s</t>
+  </si>
+  <si>
+    <t>new half dome with better attachments</t>
+  </si>
+  <si>
+    <t>New entire Drive Mech</t>
+  </si>
+  <si>
+    <t>new castor rocker mechanism</t>
+  </si>
+  <si>
+    <t>new trailer hitch</t>
+  </si>
+  <si>
+    <t>New still in Dev</t>
+  </si>
+  <si>
+    <t>new actual trailer</t>
+  </si>
+  <si>
+    <t>liion battery instead of lipo</t>
+  </si>
+  <si>
+    <t>hex shaft is the key difference, everything else much stronger</t>
+  </si>
+  <si>
+    <t>03/10/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connector made </t>
+  </si>
+  <si>
+    <t>battery snaps in and connections are reliable</t>
+  </si>
+  <si>
+    <t>24/10/2022</t>
+  </si>
+  <si>
+    <t>To Do:</t>
+  </si>
+  <si>
+    <t>Look at bottom of chassis, bracket</t>
+  </si>
+  <si>
+    <t>remove characters from maths game</t>
+  </si>
+  <si>
+    <t>Fix and test trailer</t>
+  </si>
+  <si>
+    <t>test clover with new batteries</t>
+  </si>
+  <si>
+    <t>check lipos</t>
+  </si>
+  <si>
+    <t>first try with kids handing out characters</t>
   </si>
 </sst>
 </file>
@@ -664,7 +733,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,6 +752,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -696,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -711,6 +786,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1027,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,7 +1893,7 @@
     </row>
     <row r="75" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>0</v>
@@ -1885,9 +1966,137 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="5:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E82" s="3" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D1FE69-7813-4EEC-982B-229CE5B48F44}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AE35B61-550B-4B6A-8E19-1EBE6A1A2CF2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="227">
   <si>
     <t>Monday</t>
   </si>
@@ -682,9 +682,6 @@
     <t>Look at bottom of chassis, bracket</t>
   </si>
   <si>
-    <t>remove characters from maths game</t>
-  </si>
-  <si>
     <t>Fix and test trailer</t>
   </si>
   <si>
@@ -694,7 +691,31 @@
     <t>check lipos</t>
   </si>
   <si>
-    <t>first try with kids handing out characters</t>
+    <t>remove characters from maths game - first try with cards</t>
+  </si>
+  <si>
+    <t>tested lithim ion… they work</t>
+  </si>
+  <si>
+    <t>printing rest of back pieces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">put together trailer </t>
+  </si>
+  <si>
+    <t>tested trailer up to 50 pounds, all good</t>
+  </si>
+  <si>
+    <t>worked on pi code</t>
+  </si>
+  <si>
+    <t>trying to get pi to start program on reboot.. So far no luck</t>
+  </si>
+  <si>
+    <t>problem : I think it cant find the files as it works from home dir</t>
+  </si>
+  <si>
+    <t>put clover together with new batteries</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,31 +2093,56 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="4" t="s">
         <v>214</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>217</v>
+      <c r="B106" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AE35B61-550B-4B6A-8E19-1EBE6A1A2CF2}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CAF8B24-8C36-44B0-AF7C-60491E789C7F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="232">
   <si>
     <t>Monday</t>
   </si>
@@ -716,6 +716,21 @@
   </si>
   <si>
     <t>put clover together with new batteries</t>
+  </si>
+  <si>
+    <t>fixed steering</t>
+  </si>
+  <si>
+    <t>tested new batteries and trailer</t>
+  </si>
+  <si>
+    <t>trailer is the weak point</t>
+  </si>
+  <si>
+    <t>integrated googling into chatbot</t>
+  </si>
+  <si>
+    <t>integrate google script</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
   <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,13 +2125,19 @@
       <c r="B104" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C104" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>221</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2126,16 +2147,25 @@
       <c r="B106" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>223</v>
       </c>
+      <c r="C107" s="3" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="B108" s="3" t="s">
         <v>224</v>
       </c>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CAF8B24-8C36-44B0-AF7C-60491E789C7F}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E7B62F6-B510-4C90-A68E-C5C3497636E2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
+    <workbookView xWindow="2895" yWindow="465" windowWidth="21600" windowHeight="11295" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="240">
   <si>
     <t>Monday</t>
   </si>
@@ -731,6 +731,30 @@
   </si>
   <si>
     <t>integrate google script</t>
+  </si>
+  <si>
+    <t>working on game chips</t>
+  </si>
+  <si>
+    <t>test skateboard trailer</t>
+  </si>
+  <si>
+    <t>make more tokens</t>
+  </si>
+  <si>
+    <t>fix LD formula for tokens characters</t>
+  </si>
+  <si>
+    <t>check ages and adjust math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test questions on pi - working the same </t>
+  </si>
+  <si>
+    <t>lap around the block.. 10 mins continous, voltage ending 19.9, no problems</t>
+  </si>
+  <si>
+    <t>worked on chatbot webscraper</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,6 +2152,9 @@
       <c r="C104" s="3" t="s">
         <v>227</v>
       </c>
+      <c r="D104" s="3" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -2139,6 +2166,9 @@
       <c r="C105" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="D105" s="4" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
@@ -2150,6 +2180,9 @@
       <c r="C106" s="3" t="s">
         <v>229</v>
       </c>
+      <c r="D106" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
@@ -2161,6 +2194,9 @@
       <c r="C107" s="3" t="s">
         <v>230</v>
       </c>
+      <c r="D107" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
@@ -2169,10 +2205,24 @@
       <c r="B108" s="3" t="s">
         <v>224</v>
       </c>
+      <c r="C108" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
         <v>225</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D111" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E7B62F6-B510-4C90-A68E-C5C3497636E2}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B7DDE69-26F3-4C1F-961E-EB06B55419DB}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="465" windowWidth="21600" windowHeight="11295" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="241">
   <si>
     <t>Monday</t>
   </si>
@@ -755,6 +755,9 @@
   </si>
   <si>
     <t>worked on chatbot webscraper</t>
+  </si>
+  <si>
+    <t>reprinting head, holding battery in back of head</t>
   </si>
 </sst>
 </file>
@@ -1170,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
   <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,6 +2144,9 @@
       <c r="C103" s="3" t="s">
         <v>226</v>
       </c>
+      <c r="E103" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B7DDE69-26F3-4C1F-961E-EB06B55419DB}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BEF66C8-3EBC-48B1-A2E1-6EA17248D612}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
   <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,7 +2214,7 @@
       <c r="C108" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="4" t="s">
         <v>235</v>
       </c>
     </row>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BEF66C8-3EBC-48B1-A2E1-6EA17248D612}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B3F15E1-1AD6-4D90-9912-7B62E94F7298}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="249">
   <si>
     <t>Monday</t>
   </si>
@@ -758,6 +758,30 @@
   </si>
   <si>
     <t>reprinting head, holding battery in back of head</t>
+  </si>
+  <si>
+    <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>Cobot Improvements</t>
+  </si>
+  <si>
+    <t>Look at script</t>
+  </si>
+  <si>
+    <t>reprint trailer part</t>
+  </si>
+  <si>
+    <t>reprint back of head</t>
+  </si>
+  <si>
+    <t>source velcro</t>
+  </si>
+  <si>
+    <t>source better battery</t>
+  </si>
+  <si>
+    <t>look at trailers available</t>
   </si>
 </sst>
 </file>
@@ -796,7 +820,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,6 +845,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -834,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -855,6 +885,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1171,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,6 +2264,61 @@
         <v>238</v>
       </c>
     </row>
+    <row r="113" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B3F15E1-1AD6-4D90-9912-7B62E94F7298}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC0AF15-7FB5-46B5-8E04-D4CF4873EB00}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="252">
   <si>
     <t>Monday</t>
   </si>
@@ -782,6 +782,15 @@
   </si>
   <si>
     <t>look at trailers available</t>
+  </si>
+  <si>
+    <t>odrv0.axis1.controller.config.enable_overspeed_error = False</t>
+  </si>
+  <si>
+    <t>set this up to try eleviate these errors</t>
+  </si>
+  <si>
+    <t>the error resets to true at powerup, increased vel limit instead</t>
   </si>
 </sst>
 </file>
@@ -905,6 +914,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1349538</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>139854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F424248F-F519-C751-FF2C-C809BE55A627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="39643050"/>
+          <a:ext cx="3168813" cy="2940204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1204,24 +1262,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="36" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="3"/>
+    <col min="7" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1241,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
@@ -1261,7 +1319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -1281,7 +1339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -1301,7 +1359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1318,7 +1376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -1332,7 +1390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1343,32 +1401,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1388,7 +1446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1402,7 +1460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
@@ -1413,17 +1471,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E18" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -1443,7 +1501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
@@ -1460,7 +1518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -1480,7 +1538,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
@@ -1500,7 +1558,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -1517,7 +1575,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
@@ -1531,7 +1589,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
@@ -1545,7 +1603,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
         <v>60</v>
       </c>
@@ -1556,7 +1614,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
@@ -1570,7 +1628,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
@@ -1584,12 +1642,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E31" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
@@ -1597,22 +1655,22 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="20" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
@@ -1632,7 +1690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>100</v>
       </c>
@@ -1649,7 +1707,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>101</v>
       </c>
@@ -1666,7 +1724,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>102</v>
       </c>
@@ -1680,7 +1738,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>103</v>
       </c>
@@ -1694,7 +1752,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>104</v>
       </c>
@@ -1705,7 +1763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>105</v>
       </c>
@@ -1716,12 +1774,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="20" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>126</v>
       </c>
@@ -1744,7 +1802,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
         <v>127</v>
       </c>
@@ -1755,7 +1813,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="s">
         <v>128</v>
       </c>
@@ -1772,7 +1830,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>136</v>
       </c>
@@ -1792,7 +1850,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
         <v>130</v>
       </c>
@@ -1803,7 +1861,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B53" s="3" t="s">
         <v>131</v>
       </c>
@@ -1811,7 +1869,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B54" s="3" t="s">
         <v>132</v>
       </c>
@@ -1819,17 +1877,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D55" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D56" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>149</v>
       </c>
@@ -1849,7 +1907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B59" s="3" t="s">
         <v>150</v>
       </c>
@@ -1866,7 +1924,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="s">
         <v>151</v>
       </c>
@@ -1883,7 +1941,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B61" s="3" t="s">
         <v>152</v>
       </c>
@@ -1900,7 +1958,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
         <v>153</v>
       </c>
@@ -1911,7 +1969,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B63" s="3" t="s">
         <v>154</v>
       </c>
@@ -1919,17 +1977,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B64" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B65" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>172</v>
       </c>
@@ -1949,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B69" s="3" t="s">
         <v>173</v>
       </c>
@@ -1963,7 +2021,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B70" s="3" t="s">
         <v>174</v>
       </c>
@@ -1974,7 +2032,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B71" s="3" t="s">
         <v>175</v>
       </c>
@@ -1982,12 +2040,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>209</v>
       </c>
@@ -2007,7 +2065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B76" s="3" t="s">
         <v>181</v>
       </c>
@@ -2021,7 +2079,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B77" s="3" t="s">
         <v>182</v>
       </c>
@@ -2035,7 +2093,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B78" s="3" t="s">
         <v>183</v>
       </c>
@@ -2046,7 +2104,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
         <v>184</v>
       </c>
@@ -2057,79 +2115,79 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E80" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="E82" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>207</v>
       </c>
@@ -2137,12 +2195,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B98" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>212</v>
       </c>
@@ -2162,12 +2220,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>214</v>
       </c>
@@ -2181,7 +2239,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>218</v>
       </c>
@@ -2195,7 +2253,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>215</v>
       </c>
@@ -2209,7 +2267,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>216</v>
       </c>
@@ -2223,7 +2281,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>217</v>
       </c>
@@ -2237,7 +2295,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>231</v>
       </c>
@@ -2251,7 +2309,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B109" s="3" t="s">
         <v>225</v>
       </c>
@@ -2259,12 +2317,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="D111" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>241</v>
       </c>
@@ -2284,43 +2342,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B138" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B139" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC0AF15-7FB5-46B5-8E04-D4CF4873EB00}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C145F8D-545C-413B-AC07-8FA43A3B0B48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="253">
   <si>
     <t>Monday</t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t>the error resets to true at powerup, increased vel limit instead</t>
+  </si>
+  <si>
+    <t>seems to be working</t>
   </si>
 </sst>
 </file>
@@ -1262,24 +1265,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="36" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="3"/>
+    <col min="7" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1401,32 +1404,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
@@ -1471,17 +1474,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E18" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>60</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
@@ -1642,12 +1645,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
@@ -1655,22 +1658,22 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="20" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>100</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>101</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>102</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>103</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>104</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>105</v>
       </c>
@@ -1774,12 +1777,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="20" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>126</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>127</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>128</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>136</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>130</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>131</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>132</v>
       </c>
@@ -1877,17 +1880,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>149</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>150</v>
       </c>
@@ -1924,7 +1927,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>151</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>152</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>153</v>
       </c>
@@ -1969,7 +1972,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>154</v>
       </c>
@@ -1977,17 +1980,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="20" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>172</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>173</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>174</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>175</v>
       </c>
@@ -2040,12 +2043,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="20" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>209</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>181</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>182</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>183</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>184</v>
       </c>
@@ -2115,79 +2118,79 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E80" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E82" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>207</v>
       </c>
@@ -2195,12 +2198,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="20" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>212</v>
       </c>
@@ -2220,12 +2223,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>214</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>218</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>215</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>216</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>217</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>231</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
         <v>225</v>
       </c>
@@ -2317,12 +2320,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="D111" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="20" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>241</v>
       </c>
@@ -2342,54 +2345,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B138" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B139" s="3" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C145F8D-545C-413B-AC07-8FA43A3B0B48}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81D15C2A-48E0-41E4-88A6-B243701A127B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="259">
   <si>
     <t>Monday</t>
   </si>
@@ -794,6 +794,24 @@
   </si>
   <si>
     <t>seems to be working</t>
+  </si>
+  <si>
+    <t>added in tracking of lifetime distancew</t>
+  </si>
+  <si>
+    <t>maybe change to find position less - only when stopping</t>
+  </si>
+  <si>
+    <t>went to sign shop</t>
+  </si>
+  <si>
+    <t>fixed the lag in the distance</t>
+  </si>
+  <si>
+    <t>only checking position when needed</t>
+  </si>
+  <si>
+    <t>also including reversing, still counts as distance</t>
   </si>
 </sst>
 </file>
@@ -929,9 +947,9 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1349538</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>139854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -955,8 +973,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171700" y="39643050"/>
-          <a:ext cx="3168813" cy="2940204"/>
+          <a:off x="2076450" y="42767250"/>
+          <a:ext cx="1628775" cy="3092604"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1265,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,20 +2372,32 @@
       <c r="A115" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="C115" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C116" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C117" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>246</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,24 +2410,34 @@
         <v>248</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B135" s="3" t="s">
+    <row r="133" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B139" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81D15C2A-48E0-41E4-88A6-B243701A127B}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74D978C-92CA-4AFE-9734-4C73AD3872E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="263">
   <si>
     <t>Monday</t>
   </si>
@@ -812,6 +812,18 @@
   </si>
   <si>
     <t>also including reversing, still counts as distance</t>
+  </si>
+  <si>
+    <t>testing out adafruit magic circle</t>
+  </si>
+  <si>
+    <t>lots of possibility</t>
+  </si>
+  <si>
+    <t>sign shop trip</t>
+  </si>
+  <si>
+    <t>investigating adafruit bluefruit</t>
   </si>
 </sst>
 </file>
@@ -949,7 +961,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1695450</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>139854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -984,6 +996,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1286,7 +1302,7 @@
   <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,13 +2391,19 @@
       <c r="C115" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D115" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>256</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2405,9 +2427,17 @@
         <v>247</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>248</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C121" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="2:2" ht="45" x14ac:dyDescent="0.25">

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74D978C-92CA-4AFE-9734-4C73AD3872E1}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F61CC40-FCF5-4EEB-8BFD-DA38DCD0785B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="271">
   <si>
     <t>Monday</t>
   </si>
@@ -824,6 +824,30 @@
   </si>
   <si>
     <t>investigating adafruit bluefruit</t>
+  </si>
+  <si>
+    <t>fixing speech data file format</t>
+  </si>
+  <si>
+    <t>went to talmatora</t>
+  </si>
+  <si>
+    <t>kids loved the robot, notes:</t>
+  </si>
+  <si>
+    <t>webscraper didn’t provide any good answers, may be wise to remove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maybe use it for a separate game ? </t>
+  </si>
+  <si>
+    <t>some ideas:</t>
+  </si>
+  <si>
+    <t>Projector</t>
+  </si>
+  <si>
+    <t>lithim ions still stalling</t>
   </si>
 </sst>
 </file>
@@ -961,7 +985,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1695450</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>139854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1302,7 +1326,7 @@
   <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,6 +2429,9 @@
       <c r="D116" s="3" t="s">
         <v>262</v>
       </c>
+      <c r="E116" s="3" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -2413,6 +2440,9 @@
       <c r="C117" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="E117" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
@@ -2421,10 +2451,16 @@
       <c r="C118" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E118" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>247</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2434,10 +2470,31 @@
       <c r="C120" s="3" t="s">
         <v>259</v>
       </c>
+      <c r="E120" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C121" s="3" t="s">
         <v>260</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E122" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E124" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="2:2" ht="45" x14ac:dyDescent="0.25">

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F61CC40-FCF5-4EEB-8BFD-DA38DCD0785B}"/>
+  <xr:revisionPtr revIDLastSave="345" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC6F22A7-6464-4C66-98FE-49886881B49F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="273">
   <si>
     <t>Monday</t>
   </si>
@@ -848,6 +848,12 @@
   </si>
   <si>
     <t>lithim ions still stalling</t>
+  </si>
+  <si>
+    <t>working on calibration, changing max vel</t>
+  </si>
+  <si>
+    <t>07/11/2022</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,6 +2438,9 @@
       <c r="E116" s="3" t="s">
         <v>263</v>
       </c>
+      <c r="F116" s="3" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -2497,34 +2506,54 @@
         <v>270</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B137" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B140" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B141" s="3" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="345" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC6F22A7-6464-4C66-98FE-49886881B49F}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68E3F1DC-8371-46F0-A0A7-4FDEBF6A7CC4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="274">
   <si>
     <t>Monday</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>07/11/2022</t>
+  </si>
+  <si>
+    <t>changing from listen to record, wont get stuck in a loop for sounds. Set to 4 seconds</t>
   </si>
 </sst>
 </file>
@@ -1329,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,6 +2559,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68E3F1DC-8371-46F0-A0A7-4FDEBF6A7CC4}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E3B1322-2918-4AB6-9DDD-ABACADFFB120}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
+    <workbookView minimized="1" xWindow="2250" yWindow="2220" windowWidth="14340" windowHeight="7320" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="276">
   <si>
     <t>Monday</t>
   </si>
@@ -857,6 +857,12 @@
   </si>
   <si>
     <t>changing from listen to record, wont get stuck in a loop for sounds. Set to 4 seconds</t>
+  </si>
+  <si>
+    <t>fixed drive mech</t>
+  </si>
+  <si>
+    <t>added simon says</t>
   </si>
 </sst>
 </file>
@@ -1029,10 +1035,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1332,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,6 +2566,16 @@
         <v>273</v>
       </c>
     </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E3B1322-2918-4AB6-9DDD-ABACADFFB120}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{119A8281-7667-423C-B460-8CB2300F3CC7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2250" yWindow="2220" windowWidth="14340" windowHeight="7320" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="285">
   <si>
     <t>Monday</t>
   </si>
@@ -863,6 +863,33 @@
   </si>
   <si>
     <t>added simon says</t>
+  </si>
+  <si>
+    <t>went to girl guides</t>
+  </si>
+  <si>
+    <t>kids not afriad, liked clover</t>
+  </si>
+  <si>
+    <t>simon says worked well.. Add more commands</t>
+  </si>
+  <si>
+    <t>lots of data to work from</t>
+  </si>
+  <si>
+    <t>working on chatbot from yesterdays data</t>
+  </si>
+  <si>
+    <t>removing web scraper, kids don’t ask knowledge questions so it’s a liability with not much added value</t>
+  </si>
+  <si>
+    <t>too much anxiety !</t>
+  </si>
+  <si>
+    <t>might use in the future for a separate game/mode for older kids</t>
+  </si>
+  <si>
+    <t>added knock knock jokes</t>
   </si>
 </sst>
 </file>
@@ -1035,6 +1062,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1334,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,15 +2596,52 @@
       <c r="B140" s="3" t="s">
         <v>273</v>
       </c>
+      <c r="C140" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C141" s="3" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C142" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B143" s="3" t="s">
         <v>275</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B147" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{119A8281-7667-423C-B460-8CB2300F3CC7}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72F63C93-B736-4109-BD53-2C81645789A0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
+    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11175" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="293">
   <si>
     <t>Monday</t>
   </si>
@@ -890,6 +890,30 @@
   </si>
   <si>
     <t>added knock knock jokes</t>
+  </si>
+  <si>
+    <t>solidified power connections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might have been the reason for stalling ? </t>
+  </si>
+  <si>
+    <t>working on projector design</t>
+  </si>
+  <si>
+    <t>designed mechanism for angling the projector</t>
+  </si>
+  <si>
+    <t>14/11/2022</t>
+  </si>
+  <si>
+    <t>get projector mech installed</t>
+  </si>
+  <si>
+    <t>working on projector mech</t>
+  </si>
+  <si>
+    <t>rebuilding top chassis</t>
   </si>
 </sst>
 </file>
@@ -1365,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N148"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2599,11 +2623,20 @@
       <c r="C140" s="3" t="s">
         <v>280</v>
       </c>
+      <c r="D140" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C141" s="3" t="s">
         <v>281</v>
       </c>
+      <c r="D141" s="3" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="3" t="s">
@@ -2629,19 +2662,58 @@
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="147" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C146" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C147" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72F63C93-B736-4109-BD53-2C81645789A0}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E5345EB-F954-4A94-B136-97AB5C03ABB3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11175" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="297">
   <si>
     <t>Monday</t>
   </si>
@@ -914,6 +914,18 @@
   </si>
   <si>
     <t>rebuilding top chassis</t>
+  </si>
+  <si>
+    <t>working on sending texts</t>
+  </si>
+  <si>
+    <t>pi sending messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on envirnoment variables </t>
+  </si>
+  <si>
+    <t>set envirnoment variables</t>
   </si>
 </sst>
 </file>
@@ -1389,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:N155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,10 +2722,28 @@
       <c r="B151" s="3" t="s">
         <v>291</v>
       </c>
+      <c r="C151" s="3" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="3" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B155" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/version1.0/Docs/Book1.xlsx
+++ b/version1.0/Docs/Book1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E5345EB-F954-4A94-B136-97AB5C03ABB3}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="13_ncr:1_{E0BB2951-155A-4C0E-9BA6-E84C03337BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD94F0F9-9851-4BDE-B377-3833D4F30E05}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE63D8C1-466B-4C26-A812-EDCDBB124742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="315">
   <si>
     <t>Monday</t>
   </si>
@@ -926,6 +926,60 @@
   </si>
   <si>
     <t>set envirnoment variables</t>
+  </si>
+  <si>
+    <t>working on buttons for jr robotics</t>
+  </si>
+  <si>
+    <t>decided buttons are too often wrong</t>
+  </si>
+  <si>
+    <t>considering switches</t>
+  </si>
+  <si>
+    <t>cant have a glitchy system as it may do damage to the robot/crash into a child</t>
+  </si>
+  <si>
+    <t>made the logos for tanner</t>
+  </si>
+  <si>
+    <t>switching to buttons</t>
+  </si>
+  <si>
+    <t>ezbutton library is great</t>
+  </si>
+  <si>
+    <t>printing mount, a switch will activate the loop rendering the remote useless while the game is in motion</t>
+  </si>
+  <si>
+    <t>might do a wrangle button, would be very cool</t>
+  </si>
+  <si>
+    <t>21/11/2022</t>
+  </si>
+  <si>
+    <t>Projector is ready to install once purchased</t>
+  </si>
+  <si>
+    <t>Working on projector</t>
+  </si>
+  <si>
+    <t>Working on buttons for jr robotics</t>
+  </si>
+  <si>
+    <t>Working on new dome to hold projector</t>
+  </si>
+  <si>
+    <t>29/11/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">researching ros, lidar, </t>
+  </si>
+  <si>
+    <t>Had meeting with Gabe, prepared IRAP documents</t>
+  </si>
+  <si>
+    <t>work on attendance, RFID</t>
   </si>
 </sst>
 </file>
@@ -1401,24 +1455,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435AFAA3-9100-481B-8119-9D383E076530}">
-  <dimension ref="A1:N155"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="36" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="3"/>
+    <col min="7" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
@@ -1458,7 +1513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -1478,7 +1533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -1498,7 +1553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1515,7 +1570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -1529,7 +1584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1540,32 +1595,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1585,7 +1640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1599,7 +1654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
@@ -1610,17 +1665,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E18" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -1640,7 +1695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
@@ -1657,7 +1712,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -1677,7 +1732,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
@@ -1697,7 +1752,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -1714,7 +1769,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
@@ -1728,7 +1783,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
@@ -1742,7 +1797,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
         <v>60</v>
       </c>
@@ -1753,7 +1808,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
@@ -1767,7 +1822,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
@@ -1781,12 +1836,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E31" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
@@ -1794,22 +1849,22 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="20" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
@@ -1829,7 +1884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>100</v>
       </c>
@@ -1846,7 +1901,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>101</v>
       </c>
@@ -1863,7 +1918,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>102</v>
       </c>
@@ -1877,7 +1932,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>103</v>
       </c>
@@ -1891,7 +1946,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>104</v>
       </c>
@@ -1902,7 +1957,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>105</v>
       </c>
@@ -1913,12 +1968,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="20" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>126</v>
       </c>
@@ -1941,7 +1996,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
         <v>127</v>
       </c>
@@ -1952,7 +2007,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="s">
         <v>128</v>
       </c>
@@ -1969,7 +2024,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>136</v>
       </c>
@@ -1989,7 +2044,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
         <v>130</v>
       </c>
@@ -2000,7 +2055,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B53" s="3" t="s">
         <v>131</v>
       </c>
@@ -2008,7 +2063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B54" s="3" t="s">
         <v>132</v>
       </c>
@@ -2016,17 +2071,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D55" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D56" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>149</v>
       </c>
@@ -2046,7 +2101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B59" s="3" t="s">
         <v>150</v>
       </c>
@@ -2063,7 +2118,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="s">
         <v>151</v>
       </c>
@@ -2080,7 +2135,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B61" s="3" t="s">
         <v>152</v>
       </c>
@@ -2097,7 +2152,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
         <v>153</v>
       </c>
@@ -2108,7 +2163,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B63" s="3" t="s">
         <v>154</v>
       </c>
@@ -2116,17 +2171,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B64" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B65" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>172</v>
       </c>
@@ -2146,7 +2201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B69" s="3" t="s">
         <v>173</v>
       </c>
@@ -2160,7 +2215,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B70" s="3" t="s">
         <v>174</v>
       </c>
@@ -2171,7 +2226,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B71" s="3" t="s">
         <v>175</v>
       </c>
@@ -2179,12 +2234,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>209</v>
       </c>
@@ -2204,7 +2259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B76" s="3" t="s">
         <v>181</v>
       </c>
@@ -2218,7 +2273,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B77" s="3" t="s">
         <v>182</v>
       </c>
@@ -2232,7 +2287,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B78" s="3" t="s">
         <v>183</v>
       </c>
@@ -2243,7 +2298,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
         <v>184</v>
       </c>
@@ -2254,79 +2309,79 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E80" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="E82" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>207</v>
       </c>
@@ -2334,12 +2389,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B98" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>212</v>
       </c>
@@ -2359,12 +2414,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>214</v>
       </c>
@@ -2378,7 +2433,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>218</v>
       </c>
@@ -2392,7 +2447,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>215</v>
       </c>
@@ -2406,7 +2461,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>216</v>
       </c>
@@ -2420,7 +2475,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>217</v>
       </c>
@@ -2434,7 +2489,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>231</v>
       </c>
@@ -2448,7 +2503,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B109" s="3" t="s">
         <v>225</v>
       </c>
@@ -2456,12 +2511,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="D111" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>241</v>
       </c>
@@ -2481,12 +2536,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>243</v>
       </c>
@@ -2497,7 +2552,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>244</v>
       </c>
@@ -2514,7 +2569,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>245</v>
       </c>
@@ -2525,7 +2580,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>246</v>
       </c>
@@ -2536,7 +2591,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>247</v>
       </c>
@@ -2544,7 +2599,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>248</v>
       </c>
@@ -2555,7 +2610,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C121" s="3" t="s">
         <v>260</v>
       </c>
@@ -2563,52 +2618,52 @@
         <v>268</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E122" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E123" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E124" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B129" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B132" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B133" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B134" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B136" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B137" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>272</v>
       </c>
@@ -2628,7 +2683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B140" s="3" t="s">
         <v>273</v>
       </c>
@@ -2642,7 +2697,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C141" s="3" t="s">
         <v>281</v>
       </c>
@@ -2650,7 +2705,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B142" s="3" t="s">
         <v>274</v>
       </c>
@@ -2658,7 +2713,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B143" s="3" t="s">
         <v>275</v>
       </c>
@@ -2666,7 +2721,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B144" s="3" t="s">
         <v>276</v>
       </c>
@@ -2674,7 +2729,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B146" s="3" t="s">
         <v>277</v>
       </c>
@@ -2682,7 +2737,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B147" s="3" t="s">
         <v>278</v>
       </c>
@@ -2690,12 +2745,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B148" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>289</v>
       </c>
@@ -2715,7 +2770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>290</v>
       </c>
@@ -2725,25 +2780,127 @@
       <c r="C151" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D151" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B152" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E152" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B153" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E153" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B154" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E154" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B155" s="3" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="20" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="20" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
